--- a/02_programme_task/xlsx_out/52.1 Thessalonians.xlsx
+++ b/02_programme_task/xlsx_out/52.1 Thessalonians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,895 +453,1123 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, Silvanus, and Timothy, To the church of the Thessalonians in God the Father and the Lord Jesus Christ: Grace to you and peace. The Thessalonians Faith and Example 2</t>
+          <t>The First Letter of Paul to the Thessalonians Thessalonians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:3</t>
+          <t>1 Thessalonians 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>remembering before our God and Father your work of faith and labor of love and steadfastness of hope in our Lord Jesus Christ. 4</t>
+          <t>Paul, a Silvanus, and Timothy, To the church of the b Thessalonians in God the Father and the Lord Jesus Christ: c Grace to you and peace. The Thessalonians Faith and Example</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:4</t>
+          <t>1 Thessalonians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For we know, brother16's loved by God, that he has chosen you, 5</t>
+          <t>d We give thanks to God always for all of you, constantl y</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:5</t>
+          <t>1 Thessalonians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>because our gospel came to you not only in word, but also in power and in the Holy Spirit and with full conviction. You know what kind of men we proved to be among you for your sake. 6</t>
+          <t>e mentioning you in our prayers,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:6</t>
+          <t>1 Thessalonians 1:3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>And you became imitators of us and of the Lord, for you received the word in much affliction, with the joy of the Holy Spirit, 7</t>
+          <t>remembering before f our God and Father g your work of faith and labor of h love and i steadfastness of hope in our Lord Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:7</t>
+          <t>1 Thessalonians 1:4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>so that you became an example to all the believers in Macedonia and in Achaia. 8</t>
+          <t>For we know, j brother s loved by God, k that he has chosen you,</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:8</t>
+          <t>1 Thessalonians 1:5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For not only has the word of the Lord sounded forth from you in Macedonia and Achaia, but your faith in God has gone forth everywhere, so that we need not say anything. 9</t>
+          <t>because l our gospel came to you not only in word, but also in power and m in the Holy Spirit and with full n conviction. You know o what kind of men we proved to be among you for your sake.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:9</t>
+          <t>1 Thessalonians 1:6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For they themselves report concerning us the kind of reception we had among you, and how you turned to God from idols to serve the living and true God,</t>
+          <t>And p you became imitators of us q and of the Lord, for r you received the word in much affliction, s with the t joy of the Holy Spirit,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 Thessalonians 1:10</t>
+          <t>1 Thessalonians 1:7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>and to wait for his Son from heaven, whom he raised from the dead, Jesus who delivers us from the wrath to come. Paul's Ministry to the Thessalonians 2</t>
+          <t>so that you became an example to all the believers in Macedonia and in Achaia.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:1</t>
+          <t>1 Thessalonians 1:8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>For you yourselves know, brothers, that our coming to you was not in vain. 2</t>
+          <t>For not only has the word of the Lord u sounded forth from you in Macedonia and Achaia, but your faith in God has gone forth v everywhere, so that we need not say anything.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:2</t>
+          <t>1 Thessalonians 1:9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>But though we had already suffered and been shamefully treated at Philippi, as you know, we had boldness in our God to declare to you the gospel of God in the midst of much conflict. 3</t>
+          <t>For they themselves report concerning us the kind of w reception we had among you, and how x you turned to God y from idols to serve the living and z true God,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:3</t>
+          <t>1 Thessalonians 1:10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>For our appeal does not spring from error or impurity or any attempt to deceive, 4</t>
+          <t>and a to wait for his Son b from heaven, c whom he raised from the dead, Jesus d who delivers us from e the wrath to come. Paul s Ministry to the Thessalonians</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:4</t>
+          <t>1 Thessalonians 2:1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>but just as we have been approved by God to be entrusted with the gospel, so we speak, not to please man, but to please God who tests our hearts. 5</t>
+          <t>For you yourselves know, brothers, that our f coming to you g was not in vain.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:7</t>
+          <t>1 Thessalonians 2:2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>But we were gentl16 e among you, like a nursing mother taking care of her own children. 8</t>
+          <t>But though we had already suffered and been shamefully treated h at Philippi, as you know, i we had boldness in our God j to declare to you the gospel of God in the midst of much k conflict.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:8</t>
+          <t>1 Thessalonians 2:3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>So, being affectionately desirous of you, we were ready to share with you not only the gospel of God but also our own selves, because you had become very dear to us. 9</t>
+          <t>For l our appeal does not spring from m error or n impurity or o any attempt to deceive,</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:9</t>
+          <t>1 Thessalonians 2:4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>For you remember, brothers, our labor and toil: we worked night and day, that we might not be a burden to any of you, while we proclaimed to you the gospel of God.</t>
+          <t>but just as we have been approved by God p to be entrusted with the gospel, so we speak, not q to please man, but to please God r who tests our hearts.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:10</t>
+          <t>1 Thessalonians 2:5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>You are witnesses, and God also, how holy and righteous and blameless was our conduct toward you believers.</t>
+          <t>s For we never came with words of flattery, as you know, nor with a pretext for gree d t God is witness.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:11</t>
+          <t>1 Thessalonians 2:6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>For you know how, like a father with his children,</t>
+          <t>u Nor did we seek glory from people, whether from you or from others, v though we could have made w demands as x apostles of Christ.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:12</t>
+          <t>1 Thessalonians 2:7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>we exhorted each one of you and encouraged you and charged you to walk in a manner worthy of God, who calls you into his own kingdom and glory.</t>
+          <t>But we were y gentl e among you, z like a nursing mother taking care of her own children.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:13</t>
+          <t>1 Thessalonians 2:8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>And we also thank God constantl16 y for this, that when you received the word of God, which you heard from us, you accepted it not as the word of me16 n but as what it really is, the word of God, which is at work in you believers.</t>
+          <t>So, being affectionately desirous of you, we were ready to share with you not only the gospel of God a but also our own selves, because you had become very dear to us.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:14</t>
+          <t>1 Thessalonians 2:9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>For you, brothers, became imitators of the churches of God in Christ Jesus that are in Judea. For you suffered the same things from your own countrymen as they did from the Jews,</t>
+          <t>For you remember, brothers, b our labor and toil: we c worked night and day, that we might not be a burden to any of you, while we proclaimed to you the gospel of God.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:17</t>
+          <t>1 Thessalonians 2:10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>But since we were torn away from you, brothers, for a short time, in person not in heart, we endeavored the more eagerly and with great desire to see you face to face,</t>
+          <t>You are witnesses, and d God also, e how holy and righteous and blameless was our conduct toward you believers.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:18</t>
+          <t>1 Thessalonians 2:11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>because we wanted to come to yo16 u16 I, Paul, again and agai n but Satan hindered us.</t>
+          <t>For you know how, f like a father with his children,</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:19</t>
+          <t>1 Thessalonians 2:12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>For what is our hope or joy or crown of boasting before our Lord Jesus at his coming Is it not you</t>
+          <t>we exhorted each one of you and encouraged you and g charged h you to walk in a manner worthy of God, i who calls you into his own kingdom and glory.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 Thessalonians 2:20</t>
+          <t>1 Thessalonians 2:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>For you are our glory and joy. 3</t>
+          <t>And j we also thank God constantl y for this, that when you received k the word of God, which you heard from us, you accepted it l not as the word of me n but as what it really is, the word of God, m which is at work in you believers.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:1</t>
+          <t>1 Thessalonians 2:14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Therefore when we could bear it no long173 er, we were willing to be left behind at Athens alone, 2</t>
+          <t>For you, brothers, n became imitators of o the churches of God in Christ Jesus that are in Judea. For p you suffered the same things from your own countrymen q as they did from the Jews,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:2</t>
+          <t>1 Thessalonians 2:15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>and we sent Timothy, our brother and God's coworke r in the gospel of Christ, to establish and exhort you in your faith, 3</t>
+          <t>r who killed both the Lord Jesus and s the prophets, and drove us out, and displease God and t oppose all mankind</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:3</t>
+          <t>1 Thessalonians 2:16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>that no one be moved by these afflictions. For you yourselves know that we are destined for this. 4</t>
+          <t>u by hindering us from speaking to the Gentiles that they might be save d so as always v to fill up the measure of their sins. But w wrath has come upon them at last! Paul s Longing to See Them Again</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:4</t>
+          <t>1 Thessalonians 2:17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>For when we were with you, we kept telling you beforehand that we were to suffer affliction, just as it has come to pass, and just as you know. 5</t>
+          <t>But since we were torn away from you, brothers, for a short time, x in person not in heart, we endeavored the more eagerly and with great desire y to see you face to face,</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:5</t>
+          <t>1 Thessalonians 2:18</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>For this reason, when I could bear it no long173 er, I sent to learn about your faith, for fear that somehow the tempter had tempted you and our labor would be in vain. Timothy's Encouraging Report 6</t>
+          <t>because we wanted to come to yo u I, Paul, again and agai n but Satan z hindered us.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:6</t>
+          <t>1 Thessalonians 2:19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>But now that Timothy has come to us from you, and has brought us the good news of your faith and love and reported that you always remember us kindly and long to see us, as we long to see yo16 u16 7</t>
+          <t>For what is our hope or a joy or crown of boasting b before our Lord Jesus at his c coming? Is it not you?</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:7</t>
+          <t>1 Thessalonians 2:20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>for this reason, brothers, in all our distress and affliction we have been comforted about you through your faith. 8</t>
+          <t>For you are our glory and joy.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:8</t>
+          <t>1 Thessalonians 3:1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>For now we live, if you are standing fast in the Lord. 9</t>
+          <t>Therefore when we could bear it no long?er, we were willing d to be left behind at Athens alone,</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:9</t>
+          <t>1 Thessalonians 3:2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>For what thanksgiving can we return to God for you, for all the joy that we feel for your sake before our God,</t>
+          <t>and we e sent Timothy, f our brother and God s coworke r in the gospel of Christ, to establish and exhort you in your faith,</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:10</t>
+          <t>1 Thessalonians 3:3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>as we pray most earnestly night and day that we may see you face to face and supply what is lacking in your faith</t>
+          <t>that no one be moved by these afflictions. For you yourselves know that g we are destined for this.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:11</t>
+          <t>1 Thessalonians 3:4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Now may our God and Father himself, and our Lord Jesus, direct our way to you,</t>
+          <t>For when we were with you, we kept telling you beforehand that we were to suffer affliction, h just as it has come to pass, and just as you know.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:12</t>
+          <t>1 Thessalonians 3:5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>and may the Lord make you increase and abound in love for one another and for all, as we do for you,</t>
+          <t>For this reason, i when I could bear it no long?er, i I sent to learn about your faith, j for fear that somehow k the tempter had tempted you and l our labor would be in vain. Timothy s Encouraging Report</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 Thessalonians 3:13</t>
+          <t>1 Thessalonians 3:6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>so that he may establish your hearts blameless in holiness before our God and Father, at the coming of our Lord Jesus with all his saints. A Life Pleasing to God 4</t>
+          <t>But m now that Timothy has come to us from you, and has brought us the good news of n your faith and love and reported o that you always remember us kindly and p long to see us, as we long to see yo u</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:1</t>
+          <t>1 Thessalonians 3:7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Finally, then, brothers, we ask and urge you in the Lord Jesus, that as you received from us how you ought to walk and to please God, just as you are doing, that you do so more and more. 2</t>
+          <t>for this reason, brothers, in all our distress and affliction q we have been comforted about you through your faith.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:2</t>
+          <t>1 Thessalonians 3:8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>For you know what instructions we gave you through the Lord Jesus. 3</t>
+          <t>For now we live, if you r are standing fast in the Lord.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:3</t>
+          <t>1 Thessalonians 3:9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>For this is the will of God, your sanctification: that you abstain from sexual immorality; 4</t>
+          <t>For s what thanksgiving can we return to God for you, for all the joy that we feel for your sake before our God,</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:4</t>
+          <t>1 Thessalonians 3:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>that each one of you know how to control his own bod16 y in holiness and honor, 5</t>
+          <t>as we pray most earnestly t night and day u that we may see you face to face and v supply what is lacking in your faith?</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:5</t>
+          <t>1 Thessalonians 3:11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>not in the passion of lust like the Gentiles who do not know God; 6</t>
+          <t>Now may w our God and Father himself, and our Lord Jesus, x direct our way to you,</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:6</t>
+          <t>1 Thessalonians 3:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>that no one transgress and wrong his brother in this matter, because the Lord is an avenger in all these things, as we told you beforehand and solemnly warned you. 7</t>
+          <t>and may the Lord y make you increase and abound in love z for one another and for all, as we do for you,</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:7</t>
+          <t>1 Thessalonians 3:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>For God has not called us for impurity, but in holiness. 8</t>
+          <t>so that he may a establish your hearts blameless in holiness before w our God and Father, at b the coming of our Lord Jesus c with all his saints. A Life Pleasing to God</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:8</t>
+          <t>1 Thessalonians 4:1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Therefore whoever disregards this, disregards not man but God, who gives his Holy Spirit to you. 9</t>
+          <t>Finally, then, brothers, we ask and urge you in the Lord Jesus, that as you d received from us e how you ought to walk and f to please God, just as you are doing, that you g do so more and more.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:9</t>
+          <t>1 Thessalonians 4:2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Now concerning brotherly love you have no need for anyone to write to you, for you yourselves have been taught by God to love one another,</t>
+          <t>For h you know what instructions we gave you through the Lord Jesus.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:10</t>
+          <t>1 Thessalonians 4:3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>for that indeed is what you are doing to all the brothers throughout Macedonia. But we urge you, brothers, to do this more and more,</t>
+          <t>For this is the will of God, i your sanctification:</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:11</t>
+          <t>1 Thessalonians 4:4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>and to aspire to live quietly, and to mind your own affairs, and to work with your hands, as we instructed you,</t>
+          <t>j that you abstain from sexual immorality;</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:12</t>
+          <t>1 Thessalonians 4:4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>so that you may walk properly before outsiders and be dependent on no one. The Coming of the Lord</t>
+          <t>that each one of you know how to control his own k bod y in holiness and l honor,</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:13</t>
+          <t>1 Thessalonians 4:5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>But we do not want you to be uninformed, brothers, about those who are asleep, that you may not grieve as others do who have no hope.</t>
+          <t>not in m the passion of lust n like the Gentiles o who do not know God;</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:14</t>
+          <t>1 Thessalonians 4:6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>For since we believe that Jesus died and rose again, even so, through Jesus, God will bring with him those who have fallen asleep.</t>
+          <t>that no one transgress and p wrong his brother in this matter, because the Lord is q an avenger in all these things, as we told you beforehand and solemnly warned you.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:15</t>
+          <t>1 Thessalonians 4:7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>For this we declare to you by a word from the Lord, that we who are alive, who are left until the coming of the Lord, will not precede those who have fallen asleep.</t>
+          <t>For r God has not called us for s impurity, but in holiness.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:16</t>
+          <t>1 Thessalonians 4:8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>For the Lord himself will descend from heaven with a cry of command, with the voice of an archangel, and with the sound of the trumpet of God. And the dead in Christ will rise first.</t>
+          <t>Therefore t whoever disregards this, disregards not man but God, u who gives his Holy Spirit to you.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:17</t>
+          <t>1 Thessalonians 4:9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Then we who are alive, who are left, will be caught up together with them in the clouds to meet the Lord in the air, and so we will always be with the Lord.</t>
+          <t>Now concerning v brotherly love w you have no need for anyone to write to you, for you yourselves have been x taught by God y to love one another,</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1 Thessalonians 4:18</t>
+          <t>1 Thessalonians 4:10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Therefore encourage one another with these words. The Day of the Lord 5</t>
+          <t>for that indeed is what z you are doing to all the brothers throughout Macedonia. But we urge you, brothers, to a do this more and more,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:1</t>
+          <t>1 Thessalonians 4:11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Now concerning the times and the seasons, brothers, you have no need to have anything written to you. 2</t>
+          <t>and to aspire b to live quietly, and c to mind your own affairs, and d to work with your hands, as we instructed you,</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:2</t>
+          <t>1 Thessalonians 4:12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>For you yourselves are fully aware that the day of the Lord will come like a thief in the night. 3</t>
+          <t>so that you may e walk properly before f outsiders and be dependent on no one. The Coming of the Lord</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:3</t>
+          <t>1 Thessalonians 4:13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>While people are saying, There is peace and security, then sudden destruction will come upon them as labor pains come upon a pregnant woman, and they will not escape. 4</t>
+          <t>But we do not want you to be uninformed, brothers, about those who are asleep, g that you may not grieve as others do h who have no hope.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:4</t>
+          <t>1 Thessalonians 4:14</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>But you are not in darkness, brothers, for that day to surprise you like a thief. 5</t>
+          <t>For i since we believe that Jesus died and rose again, even so, through Jesus, God will bring with him j those who have fallen asleep.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:5</t>
+          <t>1 Thessalonians 4:15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>For you are all childre16 n of light, children of the day. We are not of the night or of the darkness. 6</t>
+          <t>For this we declare to you k by a word from the Lord, that l we who are alive, who are left until m the coming of the Lord, will not precede those who have fallen asleep.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:6</t>
+          <t>1 Thessalonians 4:16</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>So then let us not sleep, as others do, but let us keep awake and be sober. 7</t>
+          <t>For n the Lord himself will descend o from heaven p with a cry of command, with the voice of q an archangel, and r with the sound of the trumpet of God. And s the dead in Christ will rise first.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:7</t>
+          <t>1 Thessalonians 4:17</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>For those who sleep, sleep at night, and those who get drunk, are drunk at night. 8</t>
+          <t>Then we who are alive, who are left, will be t caught up together with them u in the clouds to meet the Lord in the air, and so v we will always be with the Lord.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:8</t>
+          <t>1 Thessalonians 4:18</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>But since we belong to the day, let us be sober, having put on the breastplate of faith and love, and for a helmet the hope of salvation. 9</t>
+          <t>Therefore encourage one another with these words. The Day of the Lord</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:9</t>
+          <t>1 Thessalonians 5:1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>For God has not destined us for wrath, but to obtain salvation through our Lord Jesus Christ,</t>
+          <t>Now concerning w the times and the seasons, brothers,</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:11</t>
+          <t>1 Thessalonians 5:2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Therefore encourage one another and build one another up, just as you are doing. Final Instructions and Benediction</t>
+          <t>x you have no need to have anything written to you.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:12</t>
+          <t>1 Thessalonians 5:2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>We ask you, brothers, to respect those who labor among you and are over you in the Lord and admonish you,</t>
+          <t>For you yourselves are fully aware that y the day of the Lord will come like a thief in the night.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:13</t>
+          <t>1 Thessalonians 5:3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>and to esteem them very highly in love because of their work. Be at peace among yourselves.</t>
+          <t>While people are saying, There is peace and security, then z sudden destruction will come upon them a as labor pains come upon a pregnant woman, and they will not escape.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:14</t>
+          <t>1 Thessalonians 5:4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>And we urge you, brothers, admonish the idle, encourage the fainthearted, help the weak, be patient with them all.</t>
+          <t>But you b are not in darkness, brothers, for that day to surprise you like a thief.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:15</t>
+          <t>1 Thessalonians 5:5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>See that no one repays anyone evil for evil, but always seek to do good to one another and to everyone.</t>
+          <t>For you are all c childre n of light, children of the day. We are not of the night or of the darkness.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:20</t>
+          <t>1 Thessalonians 5:6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Do not despise prophecies,</t>
+          <t>So then d let us not sleep, as others do, but let us e keep awake and f be sober.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:21</t>
+          <t>1 Thessalonians 5:7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>but test everything; hold fast what is good.</t>
+          <t>For those who sleep, sleep at night, and those who get drunk, g are drunk at night.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:22</t>
+          <t>1 Thessalonians 5:8</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Abstain from every form of evil.</t>
+          <t>But since we belong to the day, let us be sober, h having put on the breastplate of i faith and love, and for a helmet the hope of salvation.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1 Thessalonians 5:23</t>
+          <t>1 Thessalonians 5:9</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Now may the God of peace himself sanctify you completely, and may your whole spirit and soul and body be kept blameless at the coming of our Lord Jesus Christ.</t>
+          <t>For God has not destined us for j wrath, but k to obtain salvation through our Lord Jesus Christ,</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>1 Thessalonians 5:10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>l who died for us so that whether we are awake or asleep we might live with him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Therefore encourage one another and build one another up, just as you are doing. Final Instructions and Benediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>We ask you, brothers, m to respect those who labor among you and n are over you in the Lord and admonish you,</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>and to esteem them very highly in love because of their work. o Be at peace among yourselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>And we urge you, brothers, admonish p the idle,</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>q encourage the fainthearted, r help the weak, s be patient with them all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:15</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>See that t no one repays anyone evil for evil, but always u seek to do good to one another and to everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>v Rejoice always,</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:17</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>w pray without ceasing,</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>x give thanks in all circumstances; for this is the will of God in Christ Jesus for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:19</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>y Do not quench the Spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:20</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Do not despise z prophecies,</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:21</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>but a test everything; hold fast what is good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Abstain from every form of evil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Now may b the God of peace himself c sanctify you completely, and may your d whole e spirit and soul and body be kept blameless at f the coming of our Lord Jesus Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:24</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>g He who calls you is faithful; h he will surely do it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:25</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>i Brothers, pray for us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:26</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>j Greet all the brothers with a holy kiss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>1 Thessalonians 5:27</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>I put you under oath before the Lord to have this letter read to all the brothers.</t>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>I put you under oath before the Lord to have k this letter read to all the brothers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1 Thessalonians 5:28</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l The grace of our Lord Jesus Christ be with you.</t>
         </is>
       </c>
     </row>
